--- a/Textbooks, projects/Applied Math/labs/lab_3/var_9/lab_3_var_9.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_3/var_9/lab_3_var_9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A62DA8-837F-4875-9D92-A355BD248AD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D59621B-A927-4A3F-9A4D-ECCEACC111FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
